--- a/Time_kill/GrowthCurves/growth_parameter.xlsx
+++ b/Time_kill/GrowthCurves/growth_parameter.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="22">
   <si>
     <t>strain</t>
   </si>
@@ -139,13 +139,169 @@
       <alignment wrapText="true"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="162">
+  <cellXfs count="214">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
       <alignment wrapText="true"/>
     </xf>
@@ -635,184 +791,184 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="110">
+      <c r="A1" t="s" s="162">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="111">
+      <c r="B1" t="s" s="163">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="112">
+      <c r="C1" t="s" s="164">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="113">
+      <c r="D1" t="s" s="165">
         <v>3</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="114">
+      <c r="A2" t="s" s="166">
         <v>4</v>
       </c>
-      <c r="B2" t="n" s="126">
+      <c r="B2" t="n" s="178">
         <v>0.97</v>
       </c>
-      <c r="C2" t="n" s="138">
+      <c r="C2" t="n" s="190">
         <v>0.6795691958177856</v>
       </c>
-      <c r="D2" t="s" s="150">
+      <c r="D2" t="s" s="202">
         <v>16</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="115">
+      <c r="A3" t="s" s="167">
         <v>5</v>
       </c>
-      <c r="B3" t="n" s="127">
+      <c r="B3" t="n" s="179">
         <v>0.73</v>
       </c>
-      <c r="C3" t="n" s="139">
+      <c r="C3" t="n" s="191">
         <v>0.6928072625152363</v>
       </c>
-      <c r="D3" t="s" s="151">
+      <c r="D3" t="s" s="203">
         <v>17</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="116">
+      <c r="A4" t="s" s="168">
         <v>6</v>
       </c>
-      <c r="B4" t="n" s="128">
+      <c r="B4" t="n" s="180">
         <v>0.73</v>
       </c>
-      <c r="C4" t="n" s="140">
+      <c r="C4" t="n" s="192">
         <v>0.716949092138164</v>
       </c>
-      <c r="D4" t="s" s="152">
+      <c r="D4" t="s" s="204">
         <v>18</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="117">
+      <c r="A5" t="s" s="169">
         <v>7</v>
       </c>
-      <c r="B5" t="n" s="129">
+      <c r="B5" t="n" s="181">
         <v>1.06</v>
       </c>
-      <c r="C5" t="n" s="141">
+      <c r="C5" t="n" s="193">
         <v>0.7458209032692187</v>
       </c>
-      <c r="D5" t="s" s="153">
+      <c r="D5" t="s" s="205">
         <v>16</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="118">
+      <c r="A6" t="s" s="170">
         <v>8</v>
       </c>
-      <c r="B6" t="n" s="130">
+      <c r="B6" t="n" s="182">
         <v>0.83</v>
       </c>
-      <c r="C6" t="n" s="142">
+      <c r="C6" t="n" s="194">
         <v>0.6063226118631101</v>
       </c>
-      <c r="D6" t="s" s="154">
+      <c r="D6" t="s" s="206">
         <v>19</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s" s="119">
+      <c r="A7" t="s" s="171">
         <v>9</v>
       </c>
-      <c r="B7" t="n" s="131">
+      <c r="B7" t="n" s="183">
         <v>0.96</v>
       </c>
-      <c r="C7" t="n" s="143">
+      <c r="C7" t="n" s="195">
         <v>0.7146812214189296</v>
       </c>
-      <c r="D7" t="s" s="155">
+      <c r="D7" t="s" s="207">
         <v>16</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s" s="120">
+      <c r="A8" t="s" s="172">
         <v>10</v>
       </c>
-      <c r="B8" t="n" s="132">
+      <c r="B8" t="n" s="184">
         <v>0.95</v>
       </c>
-      <c r="C8" t="n" s="144">
+      <c r="C8" t="n" s="196">
         <v>0.7307414131268144</v>
       </c>
-      <c r="D8" t="s" s="156">
+      <c r="D8" t="s" s="208">
         <v>20</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="121">
+      <c r="A9" t="s" s="173">
         <v>11</v>
       </c>
-      <c r="B9" t="n" s="133">
+      <c r="B9" t="n" s="185">
         <v>0.77</v>
       </c>
-      <c r="C9" t="n" s="145">
+      <c r="C9" t="n" s="197">
         <v>0.5888285507280824</v>
       </c>
-      <c r="D9" t="s" s="157">
+      <c r="D9" t="s" s="209">
         <v>21</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="122">
+      <c r="A10" t="s" s="174">
         <v>12</v>
       </c>
-      <c r="B10" t="n" s="134">
+      <c r="B10" t="n" s="186">
         <v>0.74</v>
       </c>
-      <c r="C10" t="n" s="146">
+      <c r="C10" t="n" s="198">
         <v>0.6710372874658468</v>
       </c>
-      <c r="D10" t="s" s="158">
+      <c r="D10" t="s" s="210">
         <v>20</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="123">
+      <c r="A11" t="s" s="175">
         <v>13</v>
       </c>
-      <c r="B11" t="n" s="135">
+      <c r="B11" t="n" s="187">
         <v>0.96</v>
       </c>
-      <c r="C11" t="n" s="147">
+      <c r="C11" t="n" s="199">
         <v>0.7072421532872546</v>
       </c>
-      <c r="D11" t="s" s="159">
+      <c r="D11" t="s" s="211">
         <v>16</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="124">
+      <c r="A12" t="s" s="176">
         <v>14</v>
       </c>
-      <c r="B12" t="n" s="136">
+      <c r="B12" t="n" s="188">
         <v>0.95</v>
       </c>
-      <c r="C12" t="n" s="148">
+      <c r="C12" t="n" s="200">
         <v>0.7143857140557008</v>
       </c>
-      <c r="D12" t="s" s="160">
+      <c r="D12" t="s" s="212">
         <v>16</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s" s="125">
+      <c r="A13" t="s" s="177">
         <v>15</v>
       </c>
-      <c r="B13" t="n" s="137">
+      <c r="B13" t="n" s="189">
         <v>1.01</v>
       </c>
-      <c r="C13" t="n" s="149">
+      <c r="C13" t="n" s="201">
         <v>0.7755196855221825</v>
       </c>
-      <c r="D13" t="s" s="161">
+      <c r="D13" t="s" s="213">
         <v>16</v>
       </c>
     </row>
